--- a/ConfigFiles/ConfigTest.xlsx
+++ b/ConfigFiles/ConfigTest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1185"/>
@@ -11,7 +11,7 @@
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
     <sheet name="ReserveParticipation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -504,8 +504,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,7 +769,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -804,7 +803,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,15 +978,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
@@ -1001,7 +999,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>54</v>
       </c>
@@ -1013,7 +1011,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="3" hidden="1" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1023,8 +1021,8 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="3.75" customHeight="1"/>
+    <row r="4" spans="1:8" ht="43.5" customHeight="1">
       <c r="B4" s="31" t="s">
         <v>59</v>
       </c>
@@ -1035,7 +1033,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="10.5" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1045,7 +1043,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1059,7 +1057,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="8.25" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1068,20 +1066,20 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="8"/>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1"/>
+    <row r="10" spans="1:8" ht="1.5" hidden="1" customHeight="1"/>
+    <row r="11" spans="1:8" hidden="1"/>
+    <row r="12" spans="1:8" hidden="1"/>
+    <row r="13" spans="1:8" hidden="1"/>
+    <row r="14" spans="1:8" ht="1.5" hidden="1" customHeight="1"/>
+    <row r="15" spans="1:8" hidden="1"/>
+    <row r="16" spans="1:8" hidden="1"/>
+    <row r="17" spans="1:8" hidden="1"/>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1118,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>148</v>
       </c>
@@ -1161,17 +1159,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="0.75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="12.75" hidden="1" customHeight="1"/>
+    <row r="25" spans="1:8" ht="12.75" hidden="1" customHeight="1"/>
+    <row r="26" spans="1:8" ht="9" hidden="1" customHeight="1"/>
+    <row r="27" spans="1:8" hidden="1"/>
+    <row r="28" spans="1:8" ht="3" hidden="1" customHeight="1"/>
+    <row r="29" spans="1:8" ht="9.75" customHeight="1"/>
+    <row r="30" spans="1:8" s="9" customFormat="1">
       <c r="A30" s="8"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +1211,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -1224,24 +1222,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="19.5" hidden="1" customHeight="1"/>
+    <row r="37" spans="1:8" hidden="1"/>
+    <row r="38" spans="1:8" ht="1.5" hidden="1" customHeight="1"/>
+    <row r="39" spans="1:8" hidden="1"/>
+    <row r="40" spans="1:8" hidden="1"/>
+    <row r="41" spans="1:8" hidden="1"/>
+    <row r="42" spans="1:8" ht="1.5" hidden="1" customHeight="1"/>
+    <row r="43" spans="1:8" hidden="1"/>
+    <row r="44" spans="1:8" hidden="1"/>
+    <row r="45" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="12.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -1283,25 +1281,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:8" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="9" hidden="1" customHeight="1"/>
+    <row r="51" spans="1:8" ht="9.75" hidden="1" customHeight="1"/>
+    <row r="52" spans="1:8" hidden="1"/>
+    <row r="53" spans="1:8" ht="1.5" hidden="1" customHeight="1"/>
+    <row r="54" spans="1:8" hidden="1"/>
+    <row r="55" spans="1:8" hidden="1"/>
+    <row r="56" spans="1:8" hidden="1"/>
+    <row r="57" spans="1:8" ht="1.5" hidden="1" customHeight="1"/>
+    <row r="58" spans="1:8" hidden="1"/>
+    <row r="59" spans="1:8" hidden="1"/>
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="9.75" customHeight="1">
       <c r="A60" s="10"/>
       <c r="C60" s="18"/>
     </row>
-    <row r="61" spans="1:8" s="9" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="9" customFormat="1" ht="9.75" customHeight="1">
       <c r="A61" s="8"/>
       <c r="C61" s="17"/>
     </row>
-    <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="16" customFormat="1">
       <c r="A62" s="15" t="s">
         <v>2</v>
       </c>
@@ -1316,7 +1314,7 @@
       </c>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1348,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
         <v>38</v>
       </c>
@@ -1364,7 +1362,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
         <v>42</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
         <v>50</v>
       </c>
@@ -1402,7 +1400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
         <v>93</v>
       </c>
@@ -1419,7 +1417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
         <v>129</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
         <v>64</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
         <v>65</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>130</v>
       </c>
@@ -1535,7 +1533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>131</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.25" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>134</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
         <v>139</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
         <v>153</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>152</v>
       </c>
@@ -1655,20 +1653,20 @@
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:8" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="0.75" customHeight="1"/>
+    <row r="84" spans="1:8" ht="0.75" customHeight="1"/>
+    <row r="85" spans="1:8" s="11" customFormat="1" ht="5.25" customHeight="1">
       <c r="A85" s="10"/>
       <c r="C85" s="18"/>
     </row>
-    <row r="86" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="13.5" customHeight="1"/>
+    <row r="87" spans="1:8" ht="13.5" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="29" t="s">
         <v>53</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="29"/>
       <c r="B89" s="7" t="s">
         <v>144</v>
@@ -1703,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="29"/>
       <c r="B90" s="7" t="s">
         <v>5</v>
@@ -1718,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="29"/>
       <c r="B91" s="7" t="s">
         <v>31</v>
@@ -1733,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="29"/>
       <c r="B92" s="7" t="s">
         <v>16</v>
@@ -1748,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="29"/>
       <c r="B93" s="7" t="s">
         <v>6</v>
@@ -1763,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="29"/>
       <c r="B94" s="7" t="s">
         <v>8</v>
@@ -1778,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="29"/>
       <c r="B95" s="7" t="s">
         <v>7</v>
@@ -1793,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="29"/>
       <c r="B96" s="7" t="s">
         <v>9</v>
@@ -1808,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="29"/>
       <c r="B97" s="7" t="s">
         <v>11</v>
@@ -1823,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="29"/>
       <c r="B98" s="7" t="s">
         <v>12</v>
@@ -1838,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="29"/>
       <c r="B99" s="7" t="s">
         <v>28</v>
@@ -1853,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="29"/>
       <c r="B100" s="7" t="s">
         <v>13</v>
@@ -1868,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="29"/>
       <c r="B101" s="7" t="s">
         <v>14</v>
@@ -1883,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="29"/>
       <c r="B102" s="7" t="s">
         <v>20</v>
@@ -1901,22 +1899,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="11.25" customHeight="1"/>
+    <row r="104" spans="1:8" hidden="1"/>
+    <row r="105" spans="1:8" ht="0.75" hidden="1" customHeight="1"/>
+    <row r="106" spans="1:8" hidden="1"/>
+    <row r="107" spans="1:8" hidden="1"/>
+    <row r="108" spans="1:8" ht="10.5" customHeight="1"/>
+    <row r="109" spans="1:8" s="11" customFormat="1">
       <c r="A109" s="10"/>
       <c r="C109" s="18"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="15" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
         <v>77</v>
       </c>
@@ -1941,7 +1939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
         <v>78</v>
       </c>
@@ -1955,7 +1953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
         <v>80</v>
       </c>
@@ -1966,28 +1964,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:8" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:8" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="22.5" customHeight="1"/>
+    <row r="117" spans="1:8" hidden="1"/>
+    <row r="118" spans="1:8" hidden="1"/>
+    <row r="119" spans="1:8" hidden="1"/>
+    <row r="120" spans="1:8" hidden="1"/>
+    <row r="121" spans="1:8" ht="0.75" hidden="1" customHeight="1"/>
+    <row r="122" spans="1:8" ht="3.75" hidden="1" customHeight="1"/>
+    <row r="123" spans="1:8" ht="0.75" hidden="1" customHeight="1"/>
+    <row r="124" spans="1:8" ht="1.5" customHeight="1"/>
+    <row r="125" spans="1:8" ht="0.75" hidden="1" customHeight="1"/>
+    <row r="126" spans="1:8" hidden="1"/>
+    <row r="127" spans="1:8" hidden="1"/>
+    <row r="128" spans="1:8" s="11" customFormat="1">
       <c r="A128" s="10"/>
       <c r="C128" s="18"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="B132" s="27" t="s">
         <v>95</v>
       </c>
@@ -1995,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="B133" s="27" t="s">
         <v>96</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="B134" s="27" t="s">
         <v>97</v>
       </c>
@@ -2011,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="B135" s="27" t="s">
         <v>98</v>
       </c>
@@ -2019,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="B136" s="27" t="s">
         <v>99</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="B137" s="27" t="s">
         <v>100</v>
       </c>
@@ -2035,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="B138" s="27" t="s">
         <v>101</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="B139" s="27" t="s">
         <v>102</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="B140" s="27" t="s">
         <v>103</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="B141" s="27" t="s">
         <v>104</v>
       </c>
@@ -2067,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="B142" s="27" t="s">
         <v>105</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="B143" s="27" t="s">
         <v>106</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="B144" s="27" t="s">
         <v>107</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3">
       <c r="B145" s="27" t="s">
         <v>108</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3">
       <c r="B146" s="27" t="s">
         <v>109</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:6">
       <c r="F165" s="2"/>
     </row>
   </sheetData>
@@ -2200,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2208,7 +2206,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
@@ -2216,7 +2214,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="20" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -2255,7 +2253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>157</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>158</v>
       </c>
@@ -2283,7 +2281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -2291,12 +2289,12 @@
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="20" customFormat="1">
       <c r="B1" s="20" t="s">
         <v>110</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>95</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="20" t="s">
         <v>96</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="20" t="s">
         <v>97</v>
       </c>
@@ -2481,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="20" t="s">
         <v>98</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="20" t="s">
         <v>99</v>
       </c>
@@ -2575,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="20" t="s">
         <v>100</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>101</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>102</v>
       </c>
@@ -2716,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>103</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="20" t="s">
         <v>104</v>
       </c>
@@ -2810,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="20" t="s">
         <v>105</v>
       </c>
@@ -2857,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="20" t="s">
         <v>106</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="20" t="s">
         <v>107</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="20" t="s">
         <v>108</v>
       </c>
@@ -2998,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="20" t="s">
         <v>109</v>
       </c>
